--- a/data/trans_orig/MCS12_SP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud mental (SF12)</t>
+          <t>Puntuación media del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,44</t>
+          <t>50,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,5</t>
+          <t>47,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>48,66</t>
+          <t>48,87</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,64; 51,16</t>
+          <t>49,81; 51,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,84; 48,15</t>
+          <t>47,07; 48,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,14; 49,17</t>
+          <t>48,38; 49,37</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,04</t>
+          <t>53,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>50,98</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>52,07</t>
+          <t>52,15</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,57; 53,39</t>
+          <t>52,88; 53,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,98; 51,67</t>
+          <t>49,04; 51,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,35; 52,41</t>
+          <t>50,95; 52,71</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,94</t>
+          <t>52,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,75</t>
+          <t>51,78</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,54</t>
+          <t>52,21; 53,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,09; 52,27</t>
+          <t>51,1; 52,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,85; 52,72</t>
+          <t>51,86; 52,73</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,46</t>
+          <t>50,45</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,47</t>
+          <t>51,6</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,88</t>
+          <t>52,48; 53,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,79; 50,8</t>
+          <t>49,27; 50,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,01; 51,71</t>
+          <t>50,86; 52,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MCS12_SP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,27; 51,37</t>
+          <t>50,29; 51,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,83; 51,09</t>
+          <t>49,82; 51,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,32; 51,55</t>
+          <t>50,37; 51,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,81; 51,29</t>
+          <t>49,77; 51,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,35; 50,42</t>
+          <t>49,38; 50,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,59; 47,79</t>
+          <t>46,56; 47,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,99; 48,54</t>
+          <t>47,11; 48,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,07; 48,34</t>
+          <t>47,07; 48,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,96; 50,72</t>
+          <t>49,98; 50,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,12; 49,04</t>
+          <t>48,07; 49,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,64; 49,7</t>
+          <t>48,68; 49,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,38; 49,37</t>
+          <t>48,31; 49,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,08; 53,66</t>
+          <t>53,03; 53,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,2; 52,85</t>
+          <t>52,21; 52,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,43; 53,09</t>
+          <t>52,41; 53,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,88; 53,86</t>
+          <t>52,84; 53,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,82; 51,62</t>
+          <t>50,88; 51,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,58; 50,46</t>
+          <t>49,56; 50,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,09; 51,88</t>
+          <t>51,07; 51,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,04; 51,79</t>
+          <t>49,06; 51,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,08; 52,58</t>
+          <t>52,11; 52,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 51,65</t>
+          <t>51,06; 51,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 52,39</t>
+          <t>51,88; 52,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,71</t>
+          <t>51,0; 52,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,68; 53,81</t>
+          <t>52,69; 53,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 53,94</t>
+          <t>52,52; 53,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,66; 53,84</t>
+          <t>52,7; 53,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,21; 53,49</t>
+          <t>52,14; 53,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,71; 52,15</t>
+          <t>50,78; 52,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 52,72</t>
+          <t>51,3; 52,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,95</t>
+          <t>51,76; 53,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,1; 52,29</t>
+          <t>51,14; 52,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,97; 52,86</t>
+          <t>51,96; 52,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,15</t>
+          <t>52,14; 53,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,22</t>
+          <t>52,37; 53,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,86; 52,73</t>
+          <t>51,9; 52,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,31; 52,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,77; 52,33</t>
+          <t>51,76; 52,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,17; 52,68</t>
+          <t>52,16; 52,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,48; 53,36</t>
+          <t>52,48; 53,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,9; 49,58</t>
+          <t>48,85; 49,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,28; 50,93</t>
+          <t>50,28; 50,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,27; 50,94</t>
+          <t>49,31; 50,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,45; 51,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,4; 50,85</t>
+          <t>50,38; 50,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,29; 51,71</t>
+          <t>51,27; 51,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,86; 52,0</t>
+          <t>50,9; 51,94</t>
         </is>
       </c>
     </row>
